--- a/Output_OnTheHouse.xlsx
+++ b/Output_OnTheHouse.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <x:si>
     <x:t>Address</x:t>
   </x:si>
@@ -34,193 +34,709 @@
     <x:t>Status</x:t>
   </x:si>
   <x:si>
-    <x:t>5 darla place rosebery nt 0832</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97 brighton drive bella vista nsw 2153</x:t>
+    <x:t>10 hester road leura nsw 2780</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$800k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N/A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$900k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful</x:t>
+  </x:si>
+  <x:si>
+    <x:t>701 dingo beach road gregory river qld 4800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$550k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$600k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15-17 fig court cedar grove qld 4285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$500k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 reilly street liverpool nsw 2170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>145 edward street charleville qld 4470</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Price Missing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Failed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/60 fraser road long jetty nsw 2261</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$400k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$450k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27 stella street long jetty nsw 2261</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10b alexander crescent macquarie fields nsw 2564</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$650k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$700k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/58 myee road macquarie fields nsw 2564</x:t>
   </x:si>
   <x:si>
     <x:t>Address Not Found</x:t>
   </x:si>
   <x:si>
-    <x:t>Failed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74 station street bonnells bay nsw 2264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41 mellor place bonnyrigg heights nsw 2177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 eridge park road burradoo nsw 2576</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 norfolk street cardiff nsw 2285</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1978 cawongla road cawongla nsw 2474</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 tannabah street coonabarabran nsw 2357</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1021 freemans drive cooranbong nsw 2265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8 moray court alexandra hills qld 4161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7 limewood place algester qld 4115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 emerald place green point nsw 2428</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 keperra court arana hills qld 4054</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8a ault place illawong nsw 2234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142 byron street inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 east street inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46 sayers lane inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 jack street inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46 ross street inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 tulare crescent inverell nsw 2360</x:t>
+    <x:t>10 bayshore place cleveland qld 4163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>206 bloomfield street cleveland qld 4163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82 long street cleveland qld 4163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$750k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>148 shore street north cleveland qld 4163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 hartig crescent cloncurry qld 4824</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$275k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$300k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 martel crescent cloncurry qld 4824</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$150k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$175k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56-58 transmission street cloncurry qld 4824</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 waratah drive clontarf qld 4019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 beatty street coalfalls qld 4305</x:t>
   </x:si>
   <x:si>
     <x:t>$325k</x:t>
   </x:si>
   <x:si>
-    <x:t>N/A</x:t>
+    <x:t>6/2a kangaroo street manly nsw 2095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.20M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.30M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 kitching court collingwood park qld 4301</x:t>
   </x:si>
   <x:si>
     <x:t>$350k</x:t>
   </x:si>
   <x:si>
-    <x:t>Successful</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14 vintage close inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Price Missing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38 waratah avenue inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$150k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$175k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82 jerrara road jerrara nsw 2533</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$3.25M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$3.50M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 bixby court boronia heights qld 4124</x:t>
-  </x:si>
-  <x:si>
     <x:t>$375k</x:t>
   </x:si>
   <x:si>
-    <x:t>$400k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13 nanbaree drive bray park qld 4500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 kanes road bridges qld 4561</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$650k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$700k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68/220 christine avenue burleigh waters qld 4220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23 clara street camp hill qld 4152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$800k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$900k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24 lawton lane canungra qld 4275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$500k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$550k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>265 winstanley street carindale qld 4152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$750k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32 molesworth street lismore nsw 2480</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61 riverton street clayfield qld 4011</x:t>
+    <x:t>52 riveroak drive mardi nsw 2259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80 woodbury park drive mardi nsw 2259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34 marco polo drive cooloola cove qld 4580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/26 henson street marrickville nsw 2204</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34/17-19 busaco road marsfield nsw 2122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112 maple street cooroy qld 4563</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 barrington crescent maryland nsw 2287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 daisy court coral cove qld 4670</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 oakmont avenue cornubia qld 4130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 mounter street mayfield east nsw 2304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>301 maitland road mayfield west nsw 2304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51 hepburn street mckellars park nsw 2790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 abbeyfeale street crestmead qld 4132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 james street crestmead qld 4132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 rundell street crestmead qld 4132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81 kindlebark drive medowie nsw 2318</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 birubi street currimundi qld 4551</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22 clives circuit currumbin waters qld 4223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85 clives circuit currumbin waters qld 4223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191 baker street darling heights qld 4350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 bateman street deception bay qld 4508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89 croobyar road milton nsw 2538</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.60M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.80M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 winland drive deebing heights qld 4306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33 brushtail crescent doolandella qld 4077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 cockatoo circuit douglas qld 4814</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31 winifred crescent mittagong nsw 2575</x:t>
+  </x:si>
+  <x:si>
+    <x:t>816 princes highway mogo nsw 2536</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/28 buchan street mollymook nsw 2539</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92 gidley street molong nsw 2866</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 magra court eagleby qld 4207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7 thomas street moonbi nsw 2353</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$200k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$225k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23 carmel street east innisfail qld 4860</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29 chester street moree nsw 2400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 minnis street eastern heights qld 4305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 ellen subway mortdale nsw 2223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 macdonald street eidsvold qld 4627</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9 dustwill street eimeo qld 4740</x:t>
+  </x:si>
+  <x:si>
+    <x:t>145/2-10 coolgardie street elanora qld 4221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17 campbell street emerald qld 4720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41 rose drive mount annan nsw 2567</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 hereford place emerald qld 4720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 moody street emerald qld 4720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50 buller street everton park qld 4053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13a winter street mudgee nsw 2850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35 redbank road mudgee nsw 2850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 willowtree drive flinders view qld 4305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23 danbulla crescent forest lake qld 4078</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 monterey close forest lake qld 4078</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 cedar street forrest beach qld 4850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 donaldson street muswellbrook nsw 2333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 sowerby avenue muswellbrook nsw 2333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89 hammond road freestone qld 4370</x:t>
+  </x:si>
+  <x:si>
+    <x:t>383 philp avenue frenchville qld 4701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>198 miran khan drive armstrong beach qld 4737</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45 maliwa road narara nsw 2250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15 piccadilly street geebung qld 4034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>169 judds road glass house mountains qld 4518</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31 audley street narrandera nsw 2700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90 alfred road narraweena nsw 2099</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$2.00M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$2.20M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24 nash drive glenvale qld 4350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84 landsborough parade golden beach qld 4551</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210/61b dowling street nelson bay nsw 2315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69 bertha street goodna qld 4300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 holmes court goodna qld 4300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105 pollocks road goondiwindi qld 4390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>305/209 hunter street newcastle nsw 2300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78 raymont road grange qld 4051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 hawken street newtown nsw 2042</x:t>
+  </x:si>
+  <x:si>
+    <x:t>515 logan road greenslopes qld 4120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82 horseshoe bend gympie qld 4570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>276 lowry street north albury nsw 2640</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$250k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 flynn street harlaxton qld 4350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20-22 wray street north batemans bay nsw 2536</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26 wray street north batemans bay nsw 2536</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/55-57 sorrell street parramatta nsw 2150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 hayman street north richmond nsw 2754</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61 pring street hendra qld 4011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38 epping road north ryde nsw 2113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 carmody street hermit park qld 4812</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 ash street north st marys nsw 2760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35 mitchell road highfields qld 4352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/67 gladstone road highgate hill qld 4101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 rathbone street hillcrest qld 4118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 kurts street holland park west qld 4121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14 fourteenth a street home hill qld 4806</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$125k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63 thirteenth avenue home hill qld 4806</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76 twelfth avenue home hill qld 4806</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 byron avenue north nowra nsw 2541</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31 garden avenue nunderi nsw 2484</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.00M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42 philip street howard qld 4659</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42 whitley street howard qld 4659</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 rotuma street oakhurst nsw 2761</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86 poinsettia street inala qld 4077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 cawana place orange nsw 2800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 morobe place orange nsw 2800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28 munmora place oxley park nsw 2760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46 blazey street kallangur qld 4503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/1 goodwin street kangaroo point qld 4169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 heather street karalee qld 4306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48 col kitching drive karumba qld 4891</x:t>
+  </x:si>
+  <x:si>
+    <x:t>241 richardson road kawana qld 4701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 cromdale circuit kawungan qld 4655</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 jubilee street parkes nsw 2870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4/20 great western highway parramatta nsw 2150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34 challenge avenue kensington grove qld 4341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 kirra close kewarra beach qld 4879</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72 acacia street killarney qld 4373</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23 hillcrest road pennant hills nsw 2120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17 bellatrix drive kingston qld 4114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6/45 victoria avenue penshurst nsw 2222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 hawkhurst place kirwan qld 4817</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24 eldon street pitt town nsw 2756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>192 hyatts road plumpton nsw 2761</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 clearwater crescent port macquarie nsw 2444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23 hill street port macquarie nsw 2444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167-175 central street labrador qld 4215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/208 central street labrador qld 4215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7 chirn crescent labrador qld 4215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/54 frank street labrador qld 4215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/26 freeman street labrador qld 4215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 the bowsprit port macquarie nsw 2444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24 railway street laidley qld 4341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42/11 west dianne street lawnton qld 4501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 mcnamara street leichhardt qld 4305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 o'keefe street leichhardt qld 4305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90 sunset drive little mountain qld 4551</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15 laconia street logan central qld 4114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 harman court loganholme qld 4129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22 darryl street loganlea qld 4131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/23-25 monash road loganlea qld 4131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14 peter coote street quirindi nsw 2343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 crown close malanda qld 4885</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86 figtree close malanda qld 4885</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35 heale street malanda qld 4885</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61/260 alison road randwick nsw 2031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17/4-5 hollett close manunda qld 4870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$100k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146 seminary road marburg qld 4346</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80 joseph sheen drive raymond terrace nsw 2324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 iluka street mareeba qld 4880</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21 blackwood road margate qld 4019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/8-10 arwen street maroochydore qld 4558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160/19 arwen street maroochydore qld 4558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/32 horsley road revesby nsw 2212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>245 piccadilly street riverstone nsw 2765</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 premier street maryborough qld 4650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 urquhart street riverwood nsw 2210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188 camooweal street menzies qld 4825</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22 railway street rooty hill nsw 2766</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98 rooty hill road north rooty hill nsw 2766</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 ocean street mermaid beach qld 4218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/18-20 chaleyer street rose bay nsw 2029</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32/172 barrier reef drive mermaid waters qld 4218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>109/83-93 dalmeny avenue rosebery nsw 2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>193a king georges road roselands nsw 2196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22 ridgewell street roselands nsw 2196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15 kallay street miami qld 4220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 sandlewood close rouse hill nsw 2155</x:t>
   </x:si>
   <x:si>
     <x:t>$1.10M</x:t>
   </x:si>
   <x:si>
-    <x:t>$1.20M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>201/255-261 boundary street coolangatta qld 4225</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 kimberly grange court curra qld 4570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$450k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2/8 dandaloo drive currumbin qld 4223</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31 beaufort place deception bay qld 4508</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$300k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10-12 bishop street eagleby qld 4207</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9 tineele place emerald qld 4720</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3/26 fehlberg street everton park qld 4053</x:t>
+    <x:t>39 yellowgum avenue rouse hill nsw 2155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lot 4 wylie road mission beach qld 4852</x:t>
+  </x:si>
+  <x:si>
+    <x:t>127 glen holm street mitchelton qld 4053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 jardine street monto qld 4630</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59 amarina avenue mooloolaba qld 4557</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56b salamander way salamander bay nsw 2317</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49 flamingo avenue sanctuary point nsw 2540</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27 mountain street sanctuary point nsw 2540</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/16 smart street mooroobool qld 4870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14 archer drive moranbah qld 4744</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23-25 morrison street saratoga nsw 2251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>156 steyne road saratoga nsw 2251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 highview parade morayfield qld 4506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40 nyarra street scone nsw 2337</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 waterline close mount coolum qld 4573</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7-9 talc street mount garnet qld 4872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15 black braes court mount louisa qld 4814</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 view street singleton nsw 2330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44 stuart hindle drive mount pleasant qld 4740</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 tolcher street mount pleasant qld 4740</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32 goodsell drive bentley park qld 4869</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62 yvonne crescent mount warren park qld 4207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>246 mourilyan harbour road mourilyan qld 4858</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -601,600 +1117,612 @@
       <x:c r="A2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
       <x:c r="A33" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
       <x:c r="A35" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
       <x:c r="A36" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
       <x:c r="A37" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6">
@@ -1202,16 +1730,16 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6">
@@ -1219,16 +1747,16 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:6">
@@ -1236,16 +1764,2753 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:6">
+      <x:c r="A41" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:6">
+      <x:c r="A42" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:6">
+      <x:c r="A43" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:6">
+      <x:c r="A44" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:6">
+      <x:c r="A45" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:6">
+      <x:c r="A46" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:6">
+      <x:c r="A47" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:6">
+      <x:c r="A48" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:6">
+      <x:c r="A49" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:6">
+      <x:c r="A50" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:6">
+      <x:c r="A51" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:6">
+      <x:c r="A52" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:6">
+      <x:c r="A53" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:6">
+      <x:c r="A54" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:6">
+      <x:c r="A55" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:6">
+      <x:c r="A56" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:6">
+      <x:c r="A57" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:6">
+      <x:c r="A58" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:6">
+      <x:c r="A59" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:6">
+      <x:c r="A60" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:6">
+      <x:c r="A61" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="s">
         <x:v>9</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:6">
+      <x:c r="A62" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:6">
+      <x:c r="A63" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:6">
+      <x:c r="A64" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:6">
+      <x:c r="A65" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F65" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:6">
+      <x:c r="A66" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:6">
+      <x:c r="A67" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F67" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:6">
+      <x:c r="A68" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F68" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:6">
+      <x:c r="A69" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F69" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:6">
+      <x:c r="A70" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:6">
+      <x:c r="A71" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F71" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:6">
+      <x:c r="A72" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E72" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F72" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:6">
+      <x:c r="A73" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E73" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F73" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:6">
+      <x:c r="A74" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F74" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:6">
+      <x:c r="A75" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:6">
+      <x:c r="A76" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F76" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:6">
+      <x:c r="A77" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F77" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:6">
+      <x:c r="A78" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F78" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:6">
+      <x:c r="A79" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F79" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:6">
+      <x:c r="A80" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E80" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="F80" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:6">
+      <x:c r="A81" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E81" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F81" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:6">
+      <x:c r="A82" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E82" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F82" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:6">
+      <x:c r="A83" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E83" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F83" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:6">
+      <x:c r="A84" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E84" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F84" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:6">
+      <x:c r="A85" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E85" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F85" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:6">
+      <x:c r="A86" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D86" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E86" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F86" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:6">
+      <x:c r="A87" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E87" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F87" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:6">
+      <x:c r="A88" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E88" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F88" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:6">
+      <x:c r="A89" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E89" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F89" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:6">
+      <x:c r="A90" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E90" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F90" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:6">
+      <x:c r="A91" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D91" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E91" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F91" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:6">
+      <x:c r="A92" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E92" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="F92" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:6">
+      <x:c r="A93" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D93" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E93" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="F93" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:6">
+      <x:c r="A94" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D94" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E94" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F94" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:6">
+      <x:c r="A95" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D95" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E95" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F95" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:6">
+      <x:c r="A96" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E96" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F96" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:6">
+      <x:c r="A97" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F97" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:6">
+      <x:c r="A98" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E98" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F98" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:6">
+      <x:c r="A99" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D99" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E99" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F99" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:6">
+      <x:c r="A100" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D100" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E100" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F100" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:6">
+      <x:c r="A101" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C101" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D101" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E101" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F101" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:6">
+      <x:c r="A102" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C102" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D102" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E102" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F102" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:6">
+      <x:c r="A103" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C103" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D103" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E103" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F103" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:6">
+      <x:c r="A104" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C104" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D104" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E104" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F104" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:6">
+      <x:c r="A105" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C105" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D105" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E105" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F105" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:6">
+      <x:c r="A106" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C106" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D106" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E106" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F106" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:6">
+      <x:c r="A107" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C107" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D107" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E107" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="F107" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:6">
+      <x:c r="A108" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C108" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D108" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E108" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F108" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:6">
+      <x:c r="A109" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C109" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D109" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E109" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F109" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:6">
+      <x:c r="A110" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C110" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D110" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E110" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="F110" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:6">
+      <x:c r="A111" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C111" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D111" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E111" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F111" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:6">
+      <x:c r="A112" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C112" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D112" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E112" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F112" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:6">
+      <x:c r="A113" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C113" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D113" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E113" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F113" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:6">
+      <x:c r="A114" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C114" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D114" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E114" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F114" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:6">
+      <x:c r="A115" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C115" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D115" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E115" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F115" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:6">
+      <x:c r="A116" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C116" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D116" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E116" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F116" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:6">
+      <x:c r="A117" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C117" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D117" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E117" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F117" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:6">
+      <x:c r="A118" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="C118" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D118" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E118" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F118" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:6">
+      <x:c r="A119" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C119" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D119" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E119" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F119" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:6">
+      <x:c r="A120" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C120" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D120" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E120" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F120" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:6">
+      <x:c r="A121" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C121" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D121" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E121" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F121" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:6">
+      <x:c r="A122" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="C122" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D122" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E122" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F122" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:6">
+      <x:c r="A123" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C123" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D123" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E123" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F123" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:6">
+      <x:c r="A124" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C124" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D124" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E124" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F124" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:6">
+      <x:c r="A125" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="C125" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D125" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E125" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F125" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:6">
+      <x:c r="A126" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C126" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D126" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E126" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F126" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:6">
+      <x:c r="A127" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C127" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D127" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E127" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F127" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:6">
+      <x:c r="A128" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C128" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D128" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E128" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F128" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:6">
+      <x:c r="A129" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="C129" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D129" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E129" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F129" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:6">
+      <x:c r="A130" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C130" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D130" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E130" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F130" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:6">
+      <x:c r="A131" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="C131" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D131" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E131" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F131" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:6">
+      <x:c r="A132" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C132" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D132" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E132" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F132" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:6">
+      <x:c r="A133" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C133" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D133" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E133" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F133" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:6">
+      <x:c r="A134" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C134" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D134" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E134" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F134" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:6">
+      <x:c r="A135" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C135" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D135" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E135" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F135" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:6">
+      <x:c r="A136" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C136" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D136" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E136" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F136" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:6">
+      <x:c r="A137" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C137" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D137" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E137" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F137" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:6">
+      <x:c r="A138" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="C138" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D138" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E138" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F138" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:6">
+      <x:c r="A139" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C139" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D139" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E139" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F139" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:6">
+      <x:c r="A140" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="C140" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D140" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E140" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="F140" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:6">
+      <x:c r="A141" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="C141" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D141" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E141" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F141" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:6">
+      <x:c r="A142" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C142" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D142" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E142" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F142" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:6">
+      <x:c r="A143" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C143" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D143" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E143" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="F143" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:6">
+      <x:c r="A144" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="C144" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D144" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E144" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F144" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:6">
+      <x:c r="A145" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C145" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D145" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E145" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F145" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:6">
+      <x:c r="A146" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="C146" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D146" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E146" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F146" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="1:6">
+      <x:c r="A147" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C147" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D147" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E147" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F147" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:6">
+      <x:c r="A148" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C148" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D148" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E148" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F148" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:6">
+      <x:c r="A149" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C149" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D149" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E149" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F149" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:6">
+      <x:c r="A150" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="C150" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D150" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E150" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F150" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="1:6">
+      <x:c r="A151" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C151" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D151" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E151" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F151" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="1:6">
+      <x:c r="A152" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C152" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D152" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E152" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F152" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="1:6">
+      <x:c r="A153" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C153" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D153" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E153" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F153" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="1:6">
+      <x:c r="A154" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="C154" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D154" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E154" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F154" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:6">
+      <x:c r="A155" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C155" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D155" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E155" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F155" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156" spans="1:6">
+      <x:c r="A156" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="C156" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D156" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E156" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F156" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:6">
+      <x:c r="A157" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="C157" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="D157" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E157" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="F157" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:6">
+      <x:c r="A158" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C158" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D158" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E158" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F158" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" spans="1:6">
+      <x:c r="A159" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="C159" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D159" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E159" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F159" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160" spans="1:6">
+      <x:c r="A160" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="C160" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D160" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E160" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F160" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:6">
+      <x:c r="A161" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="C161" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D161" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E161" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F161" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:6">
+      <x:c r="A162" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C162" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D162" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E162" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F162" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" spans="1:6">
+      <x:c r="A163" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="C163" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D163" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E163" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F163" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="1:6">
+      <x:c r="A164" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="C164" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D164" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E164" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F164" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:6">
+      <x:c r="A165" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C165" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D165" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E165" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F165" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166" spans="1:6">
+      <x:c r="A166" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="C166" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D166" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E166" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F166" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167" spans="1:6">
+      <x:c r="A167" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="C167" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D167" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E167" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="F167" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168" spans="1:6">
+      <x:c r="A168" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="C168" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D168" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E168" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F168" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169" spans="1:6">
+      <x:c r="A169" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="C169" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D169" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E169" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F169" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170" spans="1:6">
+      <x:c r="A170" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C170" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D170" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E170" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F170" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171" spans="1:6">
+      <x:c r="A171" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="C171" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D171" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E171" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F171" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172" spans="1:6">
+      <x:c r="A172" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="C172" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D172" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E172" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="F172" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173" spans="1:6">
+      <x:c r="A173" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="C173" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D173" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E173" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F173" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174" spans="1:6">
+      <x:c r="A174" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C174" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D174" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E174" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="F174" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175" spans="1:6">
+      <x:c r="A175" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="C175" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D175" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E175" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F175" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176" spans="1:6">
+      <x:c r="A176" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="C176" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D176" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E176" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F176" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177" spans="1:6">
+      <x:c r="A177" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="C177" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D177" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E177" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F177" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178" spans="1:6">
+      <x:c r="A178" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="C178" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D178" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E178" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="F178" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179" spans="1:6">
+      <x:c r="A179" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="C179" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D179" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E179" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="F179" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180" spans="1:6">
+      <x:c r="A180" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="C180" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D180" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E180" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F180" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181" spans="1:6">
+      <x:c r="A181" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="C181" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D181" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E181" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F181" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="182" spans="1:6">
+      <x:c r="A182" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="C182" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D182" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E182" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F182" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="183" spans="1:6">
+      <x:c r="A183" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="C183" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D183" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E183" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F183" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="184" spans="1:6">
+      <x:c r="A184" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="C184" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D184" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E184" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F184" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="185" spans="1:6">
+      <x:c r="A185" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C185" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D185" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E185" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F185" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186" spans="1:6">
+      <x:c r="A186" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="C186" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D186" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E186" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F186" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="187" spans="1:6">
+      <x:c r="A187" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="C187" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D187" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E187" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F187" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="188" spans="1:6">
+      <x:c r="A188" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="C188" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D188" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E188" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F188" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="189" spans="1:6">
+      <x:c r="A189" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="C189" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D189" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E189" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="F189" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="190" spans="1:6">
+      <x:c r="A190" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="C190" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D190" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E190" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F190" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="191" spans="1:6">
+      <x:c r="A191" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="C191" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D191" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E191" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F191" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="192" spans="1:6">
+      <x:c r="A192" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="C192" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D192" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E192" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F192" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="193" spans="1:6">
+      <x:c r="A193" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="C193" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D193" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E193" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="F193" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="194" spans="1:6">
+      <x:c r="A194" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="C194" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D194" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E194" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F194" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="195" spans="1:6">
+      <x:c r="A195" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="C195" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D195" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E195" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F195" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="196" spans="1:6">
+      <x:c r="A196" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="C196" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D196" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E196" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F196" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="197" spans="1:6">
+      <x:c r="A197" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="C197" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D197" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E197" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F197" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="198" spans="1:6">
+      <x:c r="A198" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="C198" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D198" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E198" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F198" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="199" spans="1:6">
+      <x:c r="A199" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="C199" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D199" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E199" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F199" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="200" spans="1:6">
+      <x:c r="A200" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="C200" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D200" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E200" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F200" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="201" spans="1:6">
+      <x:c r="A201" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="C201" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D201" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E201" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F201" s="0" t="s">
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
